--- a/output_data/charts/facilities-Hilliard-1600000US3935476.xlsx
+++ b/output_data/charts/facilities-Hilliard-1600000US3935476.xlsx
@@ -898,10 +898,10 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
